--- a/ref/RDSpace_schema.xlsx
+++ b/ref/RDSpace_schema.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AfricaMultiple\Pictures\DSpaceBatching\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA2AA9-855A-4A7B-AC2D-CA029A791783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73498421-5C95-4D79-8E59-5BFA525B8F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{40A77A5B-AD24-4140-A75D-6DE431CD4201}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{40A77A5B-AD24-4140-A75D-6DE431CD4201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ResourceTypeMapping" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ResourceTypeMapping!$A$1:$C$55</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="223">
   <si>
     <t>schema</t>
   </si>
@@ -519,13 +523,199 @@
   </si>
   <si>
     <t>Combined</t>
+  </si>
+  <si>
+    <t>Cartographic Material</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Aggregated Dataset</t>
+  </si>
+  <si>
+    <t>Clinical Trial Data</t>
+  </si>
+  <si>
+    <t>Compiled Data</t>
+  </si>
+  <si>
+    <t>Encoded Data</t>
+  </si>
+  <si>
+    <t>Experimental Data</t>
+  </si>
+  <si>
+    <t>Genomic Data</t>
+  </si>
+  <si>
+    <t>Geospatial Data</t>
+  </si>
+  <si>
+    <t>Laboratory Notebook</t>
+  </si>
+  <si>
+    <t>Measurement and Test Data</t>
+  </si>
+  <si>
+    <t>Observational Data</t>
+  </si>
+  <si>
+    <t>Recorded Data</t>
+  </si>
+  <si>
+    <t>Simulation Data</t>
+  </si>
+  <si>
+    <t>Survey Data</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Industrial Design</t>
+  </si>
+  <si>
+    <t>Layout Design</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Moving Image</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Still Image</t>
+  </si>
+  <si>
+    <t>Interactive Resource</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Learning Object</t>
+  </si>
+  <si>
+    <t>Physical Object</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Research Software</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Musical Composition</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Field Notes</t>
+  </si>
+  <si>
+    <t>Manuscript</t>
+  </si>
+  <si>
+    <t>Musical Notation</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Clinical Study</t>
+  </si>
+  <si>
+    <t>Data Management Plan</t>
+  </si>
+  <si>
+    <t>Policy Report</t>
+  </si>
+  <si>
+    <t>Project Deliverable</t>
+  </si>
+  <si>
+    <t>Research Protocol</t>
+  </si>
+  <si>
+    <t>Research Report</t>
+  </si>
+  <si>
+    <t>Technical Report</t>
+  </si>
+  <si>
+    <t>Research Proposal</t>
+  </si>
+  <si>
+    <t>Technical Documentation</t>
+  </si>
+  <si>
+    <t>Transcription</t>
+  </si>
+  <si>
+    <t>Trademark</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>ResourceType</t>
+  </si>
+  <si>
+    <t>DSpaceName</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Notated music</t>
+  </si>
+  <si>
+    <t>Cartographic</t>
+  </si>
+  <si>
+    <t>Moving image</t>
+  </si>
+  <si>
+    <t>Artefact</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>Mixed material</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +747,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -584,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,45 +793,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -720,6 +885,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -774,6 +959,20 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -788,21 +987,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{432E96C7-FE86-4DE0-A52E-29B1F5EB3D55}" name="Tabelle1" displayName="Tabelle1" ref="A1:J119" totalsRowShown="0" headerRowDxfId="1" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{432E96C7-FE86-4DE0-A52E-29B1F5EB3D55}" name="Tabelle1" displayName="Tabelle1" ref="A1:J119" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J119" xr:uid="{432E96C7-FE86-4DE0-A52E-29B1F5EB3D55}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ABEDECB2-726E-4092-9ED6-78BD1AE5D0C7}" name="schema" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{98790FC6-DD56-4D38-9304-744B11FA6625}" name="element" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{06FACAB8-DBE4-4398-AD15-F72F43F82E84}" name="type" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C399BD19-EBCA-439C-8793-2CE912B30DDF}" name="Combined" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{ABEDECB2-726E-4092-9ED6-78BD1AE5D0C7}" name="schema" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{98790FC6-DD56-4D38-9304-744B11FA6625}" name="element" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{06FACAB8-DBE4-4398-AD15-F72F43F82E84}" name="type" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C399BD19-EBCA-439C-8793-2CE912B30DDF}" name="Combined" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Tabelle1[[#This Row],[schema]],CHAR(46),Tabelle1[[#This Row],[element]],IF(Tabelle1[[#This Row],[type]]="","",_xlfn.CONCAT(CHAR(46),Tabelle1[[#This Row],[type]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3E6C0BC5-2228-4C84-9EC6-14B5CF0E4FC8}" name="language (iso 639-1)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{71394015-DC50-4D33-996D-3A1DE02910AA}" name="input-type" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B93A8591-0E23-4D01-B851-7CF229DA153C}" name="repeatable" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6D24831B-FDCC-497B-8850-2505BB27FB41}" name="allowed values" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5F7F4339-7783-4FC9-AB89-B0665962A57E}" name="description" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{CC034523-8F1C-40CA-8137-322449D66CB5}" name="comments" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3E6C0BC5-2228-4C84-9EC6-14B5CF0E4FC8}" name="language (iso 639-1)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{71394015-DC50-4D33-996D-3A1DE02910AA}" name="input-type" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B93A8591-0E23-4D01-B851-7CF229DA153C}" name="repeatable" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6D24831B-FDCC-497B-8850-2505BB27FB41}" name="allowed values" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5F7F4339-7783-4FC9-AB89-B0665962A57E}" name="description" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{CC034523-8F1C-40CA-8137-322449D66CB5}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,7 +1326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1719F42-1CDE-475C-9EE6-1EAB1AD32BF7}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4045,4 +4246,348 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1BB8F-D5D7-4624-AED5-11C7A94953F0}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C55" xr:uid="{B7E1BB8F-D5D7-4624-AED5-11C7A94953F0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>